--- a/NformTester/NformTester/Keywordscripts/600.40.20.20_UserAndGroupsReadWriteDataAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.20_UserAndGroupsReadWriteDataAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="852">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3808,7 +3808,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4782,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B29:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4913,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>786</v>
+        <v>848</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>191</v>
@@ -6826,7 +6838,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>191</v>
@@ -7174,7 +7186,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>191</v>
@@ -7251,8 +7263,8 @@
       <c r="E93" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="19" t="s">
-        <v>814</v>
+      <c r="F93" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G93" s="19" t="s">
         <v>2</v>
@@ -7386,7 +7398,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>191</v>
@@ -7734,7 +7746,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>191</v>
@@ -8158,7 +8170,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>191</v>
@@ -8506,7 +8518,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>191</v>
@@ -8583,8 +8595,8 @@
       <c r="E147" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F147" s="19" t="s">
-        <v>814</v>
+      <c r="F147" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>2</v>
@@ -8717,7 +8729,7 @@
         <v>152</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>786</v>
+        <v>850</v>
       </c>
       <c r="E153" s="19" t="s">
         <v>191</v>
@@ -9051,7 +9063,7 @@
         <v>166</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E167" s="19" t="s">
         <v>191</v>
@@ -9458,7 +9470,7 @@
         <v>183</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="E184" s="19" t="s">
         <v>191</v>
@@ -9792,7 +9804,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E198" s="19" t="s">
         <v>191</v>
@@ -10166,7 +10178,7 @@
         <v>213</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="E214" s="19" t="s">
         <v>191</v>
@@ -10500,7 +10512,7 @@
         <v>227</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E228" s="19" t="s">
         <v>191</v>
@@ -10907,7 +10919,7 @@
         <v>244</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E245" s="19" t="s">
         <v>191</v>
@@ -11241,7 +11253,7 @@
         <v>258</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E259" s="19" t="s">
         <v>191</v>
@@ -11615,7 +11627,7 @@
         <v>274</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="E275" s="19" t="s">
         <v>191</v>
